--- a/CNN_results.xlsx
+++ b/CNN_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>'airplane'</t>
   </si>
@@ -162,6 +162,21 @@
   </si>
   <si>
     <t>TOTALS</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>Correct %</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Classification Plot</t>
   </si>
 </sst>
 </file>
@@ -185,12 +200,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,15 +244,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -223,6 +272,1076 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Classification Chart for CNN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9710</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9942</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBCB-4328-AF79-D3FE9E2871D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="211"/>
+        <c:overlap val="68"/>
+        <c:axId val="325681040"/>
+        <c:axId val="325681696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="325681040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>True-class</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> position in calculated class</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325681696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325681696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="4000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Images</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Classified</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325681040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="500"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A19" sqref="A19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +1619,7 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,12 +1656,21 @@
       <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>531</v>
       </c>
       <c r="C2">
@@ -566,7 +1694,7 @@
       <c r="I2">
         <v>38</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <v>210</v>
       </c>
       <c r="K2">
@@ -580,15 +1708,27 @@
         <f>B2/L2</f>
         <v>0.53100000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>SUM(B2,C2,J2,K2)</f>
+        <v>824</v>
+      </c>
+      <c r="O2">
+        <f>L2-N2</f>
+        <v>176</v>
+      </c>
+      <c r="P2">
+        <f>N2/L2</f>
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
         <v>40</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>519</v>
       </c>
       <c r="D3">
@@ -609,10 +1749,10 @@
       <c r="I3">
         <v>29</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>111</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <v>230</v>
       </c>
       <c r="L3">
@@ -623,8 +1763,20 @@
         <f>C3/L3</f>
         <v>0.51900000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f t="shared" ref="N3:N11" si="1">SUM(B3,C3,J3,K3)</f>
+        <v>900</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O11" si="2">L3-N3</f>
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <f>N3/L3</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -634,7 +1786,7 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>386</v>
       </c>
       <c r="E4">
@@ -646,7 +1798,7 @@
       <c r="G4">
         <v>70</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>104</v>
       </c>
       <c r="I4">
@@ -666,8 +1818,20 @@
         <f>D4/L4</f>
         <v>0.38600000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>862</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P8" si="3">O4/L4</f>
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -677,19 +1841,19 @@
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>127</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>325</v>
       </c>
       <c r="F5">
         <v>45</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>136</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>186</v>
       </c>
       <c r="I5">
@@ -709,8 +1873,20 @@
         <f>E5/L5</f>
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>908</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -720,22 +1896,22 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>270</v>
       </c>
       <c r="E6">
         <v>69</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>259</v>
       </c>
       <c r="G6">
         <v>38</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>162</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>114</v>
       </c>
       <c r="J6">
@@ -752,8 +1928,20 @@
         <f>F6/L6</f>
         <v>0.25900000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>912</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -763,22 +1951,22 @@
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>151</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>222</v>
       </c>
       <c r="F7">
         <v>49</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>281</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>111</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>125</v>
       </c>
       <c r="J7">
@@ -795,8 +1983,20 @@
         <f>G7/L7</f>
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>939</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -806,10 +2006,10 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>120</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>125</v>
       </c>
       <c r="F8">
@@ -818,7 +2018,7 @@
       <c r="G8">
         <v>23</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>557</v>
       </c>
       <c r="I8">
@@ -838,8 +2038,20 @@
         <f>H8/L8</f>
         <v>0.55700000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>951</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -864,7 +2076,7 @@
       <c r="H9">
         <v>54</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>533</v>
       </c>
       <c r="J9">
@@ -881,12 +2093,24 @@
         <f>I9/L9</f>
         <v>0.53300000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>929</v>
+      </c>
+      <c r="P9">
+        <f>O9/L9</f>
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>192</v>
       </c>
       <c r="C10">
@@ -910,7 +2134,7 @@
       <c r="I10">
         <v>16</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>542</v>
       </c>
       <c r="K10">
@@ -924,15 +2148,27 @@
         <f>J10/L10</f>
         <v>0.54200000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>880</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P4:P11" si="4">N10/L10</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
         <v>69</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>191</v>
       </c>
       <c r="D11">
@@ -953,10 +2189,10 @@
       <c r="I11">
         <v>68</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>127</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>438</v>
       </c>
       <c r="L11">
@@ -967,16 +2203,35 @@
         <f>K11/L11</f>
         <v>0.438</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>825</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12">
+        <f>SUM(P2:P11) / COUNT(P2:P11)</f>
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -986,8 +2241,9 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>SUM(B2,C3,D4,E5,F6,G7,H8,I9,J10,K11)</f>
         <v>4371</v>
@@ -1001,22 +2257,59 @@
         <v>0.43709999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4371</v>
+      </c>
+      <c r="B19">
+        <v>6591</v>
+      </c>
+      <c r="C19">
+        <v>7864</v>
+      </c>
+      <c r="D19">
+        <v>8626</v>
+      </c>
+      <c r="E19">
+        <v>9135</v>
+      </c>
+      <c r="F19">
+        <v>9596</v>
+      </c>
+      <c r="G19">
+        <v>9710</v>
+      </c>
+      <c r="H19">
+        <v>9847</v>
+      </c>
+      <c r="I19">
+        <v>9942</v>
+      </c>
+      <c r="J19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1109,5 +2402,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>